--- a/src/test/resources/com/ugapp/data/testdata.xlsx
+++ b/src/test/resources/com/ugapp/data/testdata.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="102">
   <si>
     <t>TCID</t>
   </si>
@@ -2955,9 +2955,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="12" t="s">
-        <v>94</v>
-      </c>
+      <c r="A5" s="11"/>
       <c r="B5" s="12" t="s">
         <v>96</v>
       </c>
@@ -2969,9 +2967,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="12" t="s">
-        <v>94</v>
-      </c>
+      <c r="A6" s="11"/>
       <c r="B6" s="12" t="s">
         <v>95</v>
       </c>
@@ -4433,20 +4429,20 @@
     <row r="218" ht="14.25" customHeight="1"/>
     <row r="219" ht="14.25" customHeight="1"/>
     <row r="220" ht="14.25" customHeight="1"/>
-    <row r="221" ht="14.25" customHeight="1"/>
-    <row r="222" ht="14.25" customHeight="1"/>
-    <row r="223" ht="14.25" customHeight="1"/>
-    <row r="224" ht="14.25" customHeight="1"/>
-    <row r="225" ht="14.25" customHeight="1"/>
-    <row r="226" ht="14.25" customHeight="1"/>
-    <row r="227" ht="14.25" customHeight="1"/>
-    <row r="228" ht="14.25" customHeight="1"/>
-    <row r="229" ht="14.25" customHeight="1"/>
-    <row r="230" ht="14.25" customHeight="1"/>
-    <row r="231" ht="14.25" customHeight="1"/>
-    <row r="232" ht="14.25" customHeight="1"/>
-    <row r="233" ht="14.25" customHeight="1"/>
-    <row r="234" ht="14.25" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
     <row r="235" ht="15.75" customHeight="1"/>
     <row r="236" ht="15.75" customHeight="1"/>
     <row r="237" ht="15.75" customHeight="1"/>
